--- a/medicine/Enfance/Jacqueline_et_les_Enfants_de_Montintin/Jacqueline_et_les_Enfants_de_Montintin.xlsx
+++ b/medicine/Enfance/Jacqueline_et_les_Enfants_de_Montintin/Jacqueline_et_les_Enfants_de_Montintin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacqueline et les Enfants de Montintin est un documentaire-slamé français réalisé par Fabrice Garcia-Carpintero, sorti en 2023[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacqueline et les Enfants de Montintin est un documentaire-slamé français réalisé par Fabrice Garcia-Carpintero, sorti en 2023.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la Seconde Guerre mondiale, grâce à l'Osé l'Œuvre de Secours aux Enfants, le château de Montintin en Haute-Vienne, propriété de la famille de Neuville, a accueilli et protégé des enfants juifs. Jacqueline Guionnaux, épouse Bayle, était employée au château en tant que lingère et a contribué à la sauvegarde de ces jeunes. Les collégiens de Saint-Germain-les-Belles leur ont dédié ce documentaire, créé dans le cadre d'un travail de devoir de mémoire[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Seconde Guerre mondiale, grâce à l'Osé l'Œuvre de Secours aux Enfants, le château de Montintin en Haute-Vienne, propriété de la famille de Neuville, a accueilli et protégé des enfants juifs. Jacqueline Guionnaux, épouse Bayle, était employée au château en tant que lingère et a contribué à la sauvegarde de ces jeunes. Les collégiens de Saint-Germain-les-Belles leur ont dédié ce documentaire, créé dans le cadre d'un travail de devoir de mémoire. 
 Une interview a pu être organisée entre les collégiens, Jacqueline et sa belle-fille Marie-France au sein de leur établissement, dans la classe d'Histoire-géographie Pour répondre aux questions des jeunes, Jacqueline s'est replongée dans ses souvenirs, avec nostalgie et humilité. L'interview est ponctuée de textes Slam écrits par les collégiens.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Jacqueline et les Enfants de Montintin
 Réalisation : Fabrice Garcia-Carpintero
@@ -581,9 +597,11 @@
           <t>Distribution[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacqueline Bayle, résistante, juste parmi les nations, chevalier de la légion d'honneur, employée de l'OSE au château de Montintin[4],[5],
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacqueline Bayle, résistante, juste parmi les nations, chevalier de la légion d'honneur, employée de l'OSE au château de Montintin
 Marie-France Bayle, belle-fille de Jacqueline,
 Titouan Chabante, slameur 1
 Soline Floranceau, slameur 2
@@ -622,10 +640,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb. Le film a été tourné en Nouvelle-Aquitaine, en Haute-Vienne à Château-Chervix.
-Bande originale
-Gymnopédie, d'Erik Satie
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb. Le film a été tourné en Nouvelle-Aquitaine, en Haute-Vienne à Château-Chervix.
 </t>
         </is>
       </c>
@@ -651,13 +672,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnopédie, d'Erik Satie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacqueline_et_les_Enfants_de_Montintin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_et_les_Enfants_de_Montintin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récompense
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb. 2024 : Mention spéciale du jury au Prix Annie et Charles Corrin pour l'enseignement de l'histoire de la Shoah.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb. 2024 : Mention spéciale du jury au Prix Annie et Charles Corrin pour l'enseignement de l'histoire de la Shoah.
 </t>
         </is>
       </c>
